--- a/biology/Médecine/Ralph_Gräsbeck/Ralph_Gräsbeck.xlsx
+++ b/biology/Médecine/Ralph_Gräsbeck/Ralph_Gräsbeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ralph_Gr%C3%A4sbeck</t>
+          <t>Ralph_Gräsbeck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armas Ralph Gustaf Gräsbeck (né le 6 juillet 1930 et décédé le 23 janvier 2016 ; connu sous le simple prénom de Ralph) est un médecin et biochimiste finlandais[1]. Il est principalement connu pour avoir participé à la découverte du syndrome de Imerslund-Grasbeck[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armas Ralph Gustaf Gräsbeck (né le 6 juillet 1930 et décédé le 23 janvier 2016 ; connu sous le simple prénom de Ralph) est un médecin et biochimiste finlandais. Il est principalement connu pour avoir participé à la découverte du syndrome de Imerslund-Grasbeck.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ralph_Gr%C3%A4sbeck</t>
+          <t>Ralph_Gräsbeck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat à l'Université d'Helsinki en 1953, puis séjourne aux États-Unis et en Suède pour y étudier la biochimie. Il est nommé docent (~ maître de conférence) en 1959, puis Professeur en 1982. 
-Il est également médecin-chef de l'hôpital de Maria à Helsinki de 1960 à 1990. Il est également l'un des fondateurs de l'Institut Minerva pour la Recherche Médicale qu'il dirige de 1971 à 1993, et où il exerce toujours les responsabilités de chef du département de biochimie[5].
+Il est également médecin-chef de l'hôpital de Maria à Helsinki de 1960 à 1990. Il est également l'un des fondateurs de l'Institut Minerva pour la Recherche Médicale qu'il dirige de 1971 à 1993, et où il exerce toujours les responsabilités de chef du département de biochimie.
 Il est, à de nombreuses reprises, récompensé en tant que membre honorifique de plusieurs organisations incluant : Société des Sciences et Lettres de Finlande, Académie des Sciences de Pologne, et des Johns Hopkins Society of Scholars.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ralph_Gr%C3%A4sbeck</t>
+          <t>Ralph_Gräsbeck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit plusieurs autres observations sur le métabolisme physiologique et pathologique de la vitamine B12, notamment chez des patients portant le ver diphyllobothrium latum ; il isola le facteur intrinsèque du suc gastrique de l'Homme, et y décrivit une protéine liant la vitamine B12 nommée protéine R (actuellement nommée haptocorrine) et démontra la circulation entérohépatique de cette vitamine. Il décrivit dans plusieurs tissus un récepteur ou transporteur de hème (pigment rouge de l'hémoglobine). Il s'intéresse également à la littérature ancienne de médecine.
 </t>
